--- a/201025_Results_Cali/output/m2/21102025_mod2_by_gender.xlsx
+++ b/201025_Results_Cali/output/m2/21102025_mod2_by_gender.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="F33">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="34">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="F34">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="F35">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="36">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="F36">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="37">
@@ -1457,16 +1457,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>170 (80.2%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>192 (86.9%)</t>
         </is>
       </c>
       <c r="F37">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="38">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="F38">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="39">
@@ -1512,51 +1512,51 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>169 (79.7%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>192 (86.9%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F39">
-        <v>0.09959999999999999</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_auto_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de automóviles (agregado)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>24 (11.3%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>25 (11.3%)</t>
         </is>
       </c>
       <c r="F40">
-        <v>0.09959999999999999</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="41">
@@ -1572,21 +1572,21 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>24 (11.4%)</t>
+          <t>17 (8.0%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>25 (11.4%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F41">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="42">
@@ -1602,21 +1602,21 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17 (8.1%)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="F42">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="43">
@@ -1632,21 +1632,21 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>Eléctrica / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>12 (5.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F43">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="44">
@@ -1662,21 +1662,21 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eléctrica / No aplica</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>135 (63.7%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>162 (73.3%)</t>
         </is>
       </c>
       <c r="F44">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="45">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="F45">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="46">
@@ -1732,11 +1732,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>17 (7.8%)</t>
+          <t>17 (7.7%)</t>
         </is>
       </c>
       <c r="F46">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="47">
@@ -1752,78 +1752,78 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>134 (63.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>160 (73.1%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F47">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_camion_agregado</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de camiones (futuro)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>212 (100.0%)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8 (3.7%)</t>
-        </is>
-      </c>
-      <c r="F48">
-        <v>0.0009</v>
+          <t>221 (100.0%)</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>modelo_vehiculo_agregado</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Modelo del vehículo (agrupado)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>2005 - 2010</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>212 (100.0%)</t>
+          <t>10 (4.7%)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>221 (100.0%)</t>
-        </is>
+          <t>5 (2.3%)</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>0.0003</v>
       </c>
     </row>
     <row r="50">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2005 - 2010</t>
+          <t>2011 - 2015</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10 (4.7%)</t>
+          <t>27 (12.7%)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>9 (4.1%)</t>
         </is>
       </c>
       <c r="F50">
@@ -1869,17 +1869,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2011 - 2015</t>
+          <t>2016 - 2020</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>27 (12.7%)</t>
+          <t>30 (14.2%)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>9 (4.1%)</t>
+          <t>25 (11.3%)</t>
         </is>
       </c>
       <c r="F51">
@@ -1899,17 +1899,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2016 - 2020</t>
+          <t>2021 o más reciente</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>30 (14.2%)</t>
+          <t>38 (17.9%)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>25 (11.3%)</t>
+          <t>37 (16.7%)</t>
         </is>
       </c>
       <c r="F52">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021 o más reciente</t>
+          <t>Anterior a 2005</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>38 (17.9%)</t>
+          <t>10 (4.7%)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>37 (16.7%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="F53">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Anterior a 2005</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10 (4.7%)</t>
+          <t>92 (43.4%)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>133 (60.2%)</t>
         </is>
       </c>
       <c r="F54">
@@ -1989,17 +1989,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>92 (43.4%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>133 (60.2%)</t>
+          <t>10 (4.5%)</t>
         </is>
       </c>
       <c r="F55">
@@ -2009,31 +2009,31 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>modelo_vehiculo_agregado</t>
+          <t>p19comuna</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modelo del vehículo (agrupado)</t>
+          <t>Comuna donde vive</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Comuna 1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>6 (2.8%)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10 (4.5%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F56">
-        <v>0.0003</v>
+        <v>0.9536</v>
       </c>
     </row>
     <row r="57">
@@ -2049,17 +2049,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Comuna 1</t>
+          <t>Comuna 10</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>6 (2.8%)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F57">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Comuna 10</t>
+          <t>Comuna 11</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12 (5.7%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>8 (3.6%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="F58">
@@ -2109,17 +2109,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Comuna 11</t>
+          <t>Comuna 12</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>6 (2.8%)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>4 (1.8%)</t>
         </is>
       </c>
       <c r="F59">
@@ -2139,17 +2139,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Comuna 12</t>
+          <t>Comuna 13</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6 (2.8%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4 (1.8%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F60">
@@ -2169,17 +2169,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Comuna 13</t>
+          <t>Comuna 14</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>7 (3.3%)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>8 (3.6%)</t>
+          <t>13 (5.9%)</t>
         </is>
       </c>
       <c r="F61">
@@ -2199,12 +2199,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Comuna 14</t>
+          <t>Comuna 15</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>7 (3.3%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2229,17 +2229,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Comuna 15</t>
+          <t>Comuna 16</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>13 (5.9%)</t>
+          <t>7 (3.2%)</t>
         </is>
       </c>
       <c r="F63">
@@ -2259,17 +2259,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Comuna 16</t>
+          <t>Comuna 17</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>8 (3.8%)</t>
+          <t>23 (10.8%)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>7 (3.2%)</t>
+          <t>31 (14.0%)</t>
         </is>
       </c>
       <c r="F64">
@@ -2289,17 +2289,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Comuna 17</t>
+          <t>Comuna 18</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>23 (10.8%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>31 (14.0%)</t>
+          <t>10 (4.5%)</t>
         </is>
       </c>
       <c r="F65">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Comuna 18</t>
+          <t>Comuna 19</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>19 (9.0%)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10 (4.5%)</t>
+          <t>18 (8.1%)</t>
         </is>
       </c>
       <c r="F66">
@@ -2349,17 +2349,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Comuna 19</t>
+          <t>Comuna 2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>19 (9.0%)</t>
+          <t>23 (10.8%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>18 (8.1%)</t>
+          <t>20 (9.0%)</t>
         </is>
       </c>
       <c r="F67">
@@ -2379,17 +2379,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Comuna 2</t>
+          <t>Comuna 20</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>23 (10.8%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>20 (9.0%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F68">
@@ -2409,17 +2409,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Comuna 20</t>
+          <t>Comuna 21</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2 (0.9%)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>8 (3.6%)</t>
+          <t>10 (4.5%)</t>
         </is>
       </c>
       <c r="F69">
@@ -2439,17 +2439,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Comuna 21</t>
+          <t>Comuna 22</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>8 (3.8%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10 (4.5%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F70">
@@ -2469,17 +2469,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Comuna 22</t>
+          <t>Comuna 3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>7 (3.3%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>8 (3.6%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="F71">
@@ -2499,17 +2499,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Comuna 3</t>
+          <t>Comuna 4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7 (3.3%)</t>
+          <t>6 (2.8%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6 (2.7%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F72">
@@ -2529,17 +2529,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Comuna 4</t>
+          <t>Comuna 5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6 (2.8%)</t>
+          <t>13 (6.1%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>11 (5.0%)</t>
         </is>
       </c>
       <c r="F73">
@@ -2559,12 +2559,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Comuna 5</t>
+          <t>Comuna 6</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>13 (6.1%)</t>
+          <t>14 (6.6%)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2589,17 +2589,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Comuna 6</t>
+          <t>Comuna 7</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>14 (6.6%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11 (5.0%)</t>
+          <t>7 (3.2%)</t>
         </is>
       </c>
       <c r="F75">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Comuna 7</t>
+          <t>Comuna 8</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>6 (2.8%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2649,17 +2649,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Comuna 8</t>
+          <t>Comuna 9</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>6 (2.8%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7 (3.2%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F77">
@@ -2669,31 +2669,31 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p19comuna</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Comuna donde vive</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Comuna 9</t>
+          <t>Compras y trámites</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>22 (10.4%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>33 (14.9%)</t>
         </is>
       </c>
       <c r="F78">
-        <v>0.9536</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="79">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Compras y trámites</t>
+          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>22 (10.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>33 (14.9%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F79">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (otro lugar, niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F80">
@@ -2769,17 +2769,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cuidado y familia (otro lugar, niños/as o jóvenes)</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (4.2%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>13 (5.9%)</t>
         </is>
       </c>
       <c r="F81">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9 (4.2%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13 (5.9%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F82">
@@ -2829,17 +2829,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>36 (17.0%)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>58 (26.2%)</t>
         </is>
       </c>
       <c r="F83">
@@ -2859,17 +2859,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Trabajo</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>36 (17.0%)</t>
+          <t>136 (64.2%)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>58 (26.2%)</t>
+          <t>107 (48.4%)</t>
         </is>
       </c>
       <c r="F84">
@@ -2889,17 +2889,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Visitas sociales</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>136 (64.2%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>107 (48.4%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F85">
@@ -2909,205 +2909,175 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>p23_agregado</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Visitas sociales</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>46.0 (31.0–60.0)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5 (2.3%)</t>
+          <t>44.0 (32.0–56.0)</t>
         </is>
       </c>
       <c r="F86">
-        <v>0.0164</v>
+        <v>0.4533</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Tiempo total de viaje (minutos)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>46.0 (31.0–60.0)</t>
+          <t>30.0 (15.0–45.0)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>44.0 (32.0–56.0)</t>
+          <t>30.0 (15.0–45.0)</t>
         </is>
       </c>
       <c r="F87">
-        <v>0.4533</v>
+        <v>0.7969000000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p18_p1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
+          <t>Minutos caminando hasta el modo de transporte</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>30.0 (15.0–45.0)</t>
+          <t>10.0 (5.0–12.0)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>30.0 (15.0–45.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="F88">
-        <v>0.7969000000000001</v>
+        <v>0.4815</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p18_p2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Minutos de espera del transporte</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–12.0)</t>
+          <t>20.0 (10.0–28.8)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="F89">
-        <v>0.4815</v>
+        <v>0.4531</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p18_p3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20.0 (10.0–28.8)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="F90">
-        <v>0.4531</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p18_p4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>Minutos caminando después del descenso</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–14.2)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="F91">
-        <v>0.965</v>
+        <v>0.5739</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18_c1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
+          <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–14.2)</t>
+          <t>15.0 (6.2–72.5)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>17.5 (15.0–27.5)</t>
         </is>
       </c>
       <c r="F92">
-        <v>0.5739</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>p18_c1</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Minutos de la caminata a su destino</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>15.0 (6.2–72.5)</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>17.5 (15.0–27.5)</t>
-        </is>
-      </c>
-      <c r="F93">
         <v>0.8694</v>
       </c>
     </row>
